--- a/testData/msl38/proposalsMultiFileLinking/2023.10M.N.v1.CreateSpeciesFirst.xlsx
+++ b/testData/msl38/proposalsMultiFileLinking/2023.10M.N.v1.CreateSpeciesFirst.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/validate_proposals/testData/proposalsMultiFileLinking/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/curtish/Documents/ICTV/load_msl/testData/msl38/proposalsMultiFileLinking/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FB13C-F93D-ED4B-895D-7B04B3B42ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32DF1419-1875-1549-BCB3-C4309DC9B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6200" windowWidth="34560" windowHeight="15840" activeTab="1" xr2:uid="{94A59F7B-7A42-3941-BED7-E7ACB004C4FA}"/>
+    <workbookView xWindow="0" yWindow="3500" windowWidth="29920" windowHeight="15840" activeTab="1" xr2:uid="{94A59F7B-7A42-3941-BED7-E7ACB004C4FA}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="3" r:id="rId1"/>
@@ -1664,9 +1664,6 @@
     <t>GenusCreatedLater20Virus</t>
   </si>
   <si>
-    <t>GenusCreatedLater20Virus Species10 Two and Three</t>
-  </si>
-  <si>
     <t>GenusCreatedLater20Virus Species10</t>
   </si>
   <si>
@@ -1692,6 +1689,9 @@
   </si>
   <si>
     <t>Species10to30to20</t>
+  </si>
+  <si>
+    <t>GenusCreatedLater20Virus Species10-Two-and-Three</t>
   </si>
 </sst>
 </file>
@@ -2277,9 +2277,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2317,7 +2317,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2423,7 +2423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2565,7 +2565,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2607,9 +2607,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2286CF-D255-A24B-BEAA-53A574258AAC}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF11" sqref="Z11:AF11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AD6" sqref="AD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2950,13 +2950,13 @@
       <c r="V5" s="35"/>
       <c r="X5" s="36"/>
       <c r="Z5" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="14" t="s">
         <v>121</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AK5" s="4" t="s">
         <v>63</v>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z6" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB6" s="14" t="s">
         <v>121</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AK6" s="4" t="s">
         <v>63</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z7" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB7" s="14" t="s">
         <v>120</v>
@@ -3013,13 +3013,13 @@
     </row>
     <row r="8" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z8" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB8" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AK8" s="4" t="s">
         <v>63</v>
@@ -3036,13 +3036,13 @@
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z9" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AB9" s="14" t="s">
         <v>120</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AK9" s="4" t="s">
         <v>63</v>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z10" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB10" s="14" t="s">
         <v>126</v>
-      </c>
-      <c r="AB10" s="14" t="s">
-        <v>127</v>
       </c>
       <c r="AL10" s="15" t="s">
         <v>27</v>
@@ -3071,21 +3071,21 @@
         <v>35</v>
       </c>
       <c r="AN10" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="Z11" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="AB11" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="AB11" s="14" t="s">
-        <v>127</v>
-      </c>
       <c r="AD11" s="26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AF11" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="AF11" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="AK11" s="4" t="s">
         <v>98</v>
@@ -3097,7 +3097,7 @@
         <v>28</v>
       </c>
       <c r="AN11" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.2">
@@ -3178,8 +3178,8 @@
       <formula>NOT(AM4=proposedRank)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="22">
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD4" xr:uid="{C3BFCEE8-5F4E-4218-B34F-5F2909915D3E}">
+  <dataValidations count="17">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD4 AD14:AD17 AD19:AD20 AD27" xr:uid="{C3BFCEE8-5F4E-4218-B34F-5F2909915D3E}">
       <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD31:AD1048576 AD22" xr:uid="{77DCB41F-881F-4ED8-B4E4-952B298D5F1E}">
@@ -3187,9 +3187,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD1:AD3 AD5:AD6" xr:uid="{C41C12C6-6B99-41E7-9220-B018159F2448}">
       <formula1>OR(LEFT(AD1048575,LEN(AB1048575))=AB1048575,AD1048575="Species")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD19:AD20 AD27" xr:uid="{E99188F1-7165-4849-AEC6-40F8A78582FB}">
-      <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" errorTitle="No spaces allowed" error="Taxon names above the rank of species may NOT contain spaces." promptTitle="No spaces allowed" prompt="Taxon names above the rank of species may NOT contain spaces." sqref="P1:P4 Q3:AC4 P5:AC1048576" xr:uid="{52FC0539-8CE1-4D6A-8AE9-C667226BA6D9}"/>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD23 AD9" xr:uid="{FB4AE646-A3B6-45D8-989E-CE736059B2BA}">
@@ -3213,9 +3210,6 @@
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD15" xr:uid="{E94EB4B0-749B-4F68-9541-D7546586CB32}">
       <formula1>OR(LEFT(AD26,LEN(AB26))=AB26,AD26="Species")</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD14" xr:uid="{B0E4334B-E48E-429C-89DA-1B72B252BF95}">
-      <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
-    </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD8" xr:uid="{9A862997-BEDA-40BD-A38E-553D82982759}">
       <formula1>OR(LEFT(AD17,LEN(AB17))=AB17,AD17="Species")</formula1>
     </dataValidation>
@@ -3230,15 +3224,6 @@
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD18" xr:uid="{58B13D35-BB13-4805-9934-45C7671A030E}">
       <formula1>OR(LEFT(AD8,LEN(AB8))=AB8,AD8="Species")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD17" xr:uid="{0339AE28-7906-4A43-99EB-486A28435F1E}">
-      <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD16" xr:uid="{7103EC30-1786-4FAE-8A86-96EE531A7CA1}">
-      <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
-    </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD15" xr:uid="{E8BF44B8-49C7-4650-BD5B-04B37AD54A3E}">
-      <formula1>OR(LEFT(#REF!,LEN(#REF!))=#REF!,#REF!="Species")</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Binomial Naming" error="Species name must start with the name of it's genus." promptTitle="binomial" sqref="AD14" xr:uid="{67710291-D695-4D15-8134-AED9C429D1B9}">
       <formula1>OR(LEFT(AD20,LEN(AB20))=AB20,AD20="Species")</formula1>
